--- a/Attributes and Objects Documentation.xlsx
+++ b/Attributes and Objects Documentation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tahoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE814A7-C9B8-4EF4-BCF0-80E01967E47A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CD3449-07C7-47EF-8A22-7F80F4D0A848}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="519">
   <si>
     <t xml:space="preserve">md5 </t>
   </si>
@@ -1127,14 +1128,6 @@
   </si>
   <si>
     <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>dns
-dst
-src</t>
   </si>
   <si>
     <t>dns_soa_email
@@ -1208,9 +1201,6 @@
     <t>email_x_mailer</t>
   </si>
   <si>
-    <t>emali</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -1280,9 +1270,6 @@
   </si>
   <si>
     <t>imphash</t>
-  </si>
-  <si>
-    <t>ip</t>
   </si>
   <si>
     <t>visa</t>
@@ -1493,9 +1480,6 @@
     <t>yara</t>
   </si>
   <si>
-    <t>cti_analyssi</t>
-  </si>
-  <si>
     <t>btc
 &lt;&lt; cryptocurrency_addr</t>
   </si>
@@ -1552,21 +1536,127 @@
     <t>win_scheduled_task</t>
   </si>
   <si>
-    <t>win_service_displaname</t>
-  </si>
-  <si>
     <t>win_service_name</t>
   </si>
   <si>
+    <t>domain|ip</t>
+  </si>
+  <si>
+    <t>filename|hash</t>
+  </si>
+  <si>
+    <t>x_misp_float</t>
+  </si>
+  <si>
+    <t>x_misp</t>
+  </si>
+  <si>
+    <t>x_misp_anonymized</t>
+  </si>
+  <si>
+    <t>x_misp_boolean</t>
+  </si>
+  <si>
+    <t>x_misp_hex</t>
+  </si>
+  <si>
+    <t>x_misp_counter</t>
+  </si>
+  <si>
+    <t>x_misp_attachment</t>
+  </si>
+  <si>
+    <t>x_misp_named_pipe</t>
+  </si>
+  <si>
+    <t>regkey|regdata</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>domain
+dst
+src</t>
+  </si>
+  <si>
     <t>malware
-win_misc</t>
+win_sys</t>
+  </si>
+  <si>
+    <t>bank_ac
+check
+financial_institute</t>
+  </si>
+  <si>
+    <t>cryptocurrency_addr</t>
+  </si>
+  <si>
+    <t>ipv4</t>
+  </si>
+  <si>
+    <t>ipv4|port</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>geoip</t>
+  </si>
+  <si>
+    <t>comp_algo</t>
+  </si>
+  <si>
+    <t>comp_algo_set</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>win_service_displayname</t>
+  </si>
+  <si>
+    <t>attacker</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>encr_algo_set</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>kex_algo_set</t>
+  </si>
+  <si>
+    <t>mac_algo_set</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>ssh_server</t>
+  </si>
+  <si>
+    <t>web_content</t>
+  </si>
+  <si>
+    <t>win_sys</t>
+  </si>
+  <si>
+    <t>taho obj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,8 +1727,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1682,7 +1795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1701,9 +1814,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1733,23 +1843,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2063,11 +2206,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9D8204-7354-4921-8988-ECE3987C6D8C}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,7 +2220,7 @@
     <col min="3" max="3" width="5.88671875" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="72.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
@@ -2098,7 +2241,7 @@
       <c r="E1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>328</v>
       </c>
     </row>
@@ -2119,408 +2262,425 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>334</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>324</v>
+        <v>498</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>114</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>441</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>357</v>
+        <v>494</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>343</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>357</v>
+        <v>344</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>327</v>
+      <c r="B25" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>363</v>
+      <c r="B28" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>32</v>
@@ -2529,54 +2689,57 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>370</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F29" s="8"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>237</v>
@@ -2585,12 +2748,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>247</v>
@@ -2599,12 +2762,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>243</v>
@@ -2613,12 +2776,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>239</v>
@@ -2627,1710 +2790,2251 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="B38" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="D39" s="5" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="8"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="D60" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B61" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="D63" s="5" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="D65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="D67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="19"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="3"/>
+      <c r="D77" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="C79" s="3"/>
       <c r="D79" s="5" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>456</v>
+        <v>232</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>406</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="D84" s="5" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C87" s="3"/>
       <c r="D87" s="5" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>358</v>
+        <v>417</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="D100" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="D103" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B105" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="21"/>
+    </row>
+    <row r="107" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="D107" s="5" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F108" s="12"/>
-    </row>
-    <row r="109" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="F109" s="12"/>
-    </row>
-    <row r="110" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="F110" s="12"/>
-    </row>
-    <row r="111" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>444</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C111" s="3"/>
       <c r="D111" s="5" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>357</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" s="3"/>
       <c r="D112" s="5" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F114" s="12"/>
-    </row>
-    <row r="115" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="17" t="s">
+      <c r="B114" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C115" s="17"/>
-      <c r="F115" s="19"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="B116" s="3" t="s">
-        <v>448</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C116" s="3"/>
       <c r="D116" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" s="3"/>
       <c r="D117" s="5" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>331</v>
+        <v>145</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>331</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F118" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" s="3"/>
       <c r="D119" s="5" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>331</v>
+        <v>92</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>457</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>331</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>331</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>331</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>450</v>
+        <v>39</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F132" s="8"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F142" s="11"/>
+      <c r="G142" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F143" s="11"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146" s="11"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F147" s="11"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F148" s="11"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="D156" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="11" t="s">
+      <c r="D157" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="F158" s="15"/>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F159" s="15"/>
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="13"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F160" s="15"/>
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F161" s="15"/>
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E162" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="F128" s="12"/>
-    </row>
-    <row r="129" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="11" t="s">
+      <c r="F162" s="15"/>
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E163" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F130" s="12"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="F163" s="15"/>
+      <c r="G163" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:G161">
-    <sortCondition ref="D2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G163">
+    <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="A8:E8 A1:D7 F1:F7 F9:F1048576 G1:XFD1048576 E1:E1048576 A9:D1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW()/2,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ADF79-6BA3-4078-AC45-2DB6C1343967}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Attributes and Objects Documentation.xlsx
+++ b/Attributes and Objects Documentation.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tahoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CD3449-07C7-47EF-8A22-7F80F4D0A848}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D53E4-EB06-402D-905F-24E712AFBED2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="current" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="misp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="561">
   <si>
     <t xml:space="preserve">md5 </t>
   </si>
@@ -1650,6 +1651,146 @@
   </si>
   <si>
     <t>taho obj</t>
+  </si>
+  <si>
+    <t>tahoe attribute</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>tahoe object</t>
+  </si>
+  <si>
+    <t>sha256</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sha1</t>
+  </si>
+  <si>
+    <t>sha224</t>
+  </si>
+  <si>
+    <t>hash
+checksum</t>
+  </si>
+  <si>
+    <t>external_information</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>registrar</t>
+  </si>
+  <si>
+    <t>registrant</t>
+  </si>
+  <si>
+    <t>fingerprint</t>
+  </si>
+  <si>
+    <t>btc</t>
+  </si>
+  <si>
+    <t>cryptocurrency_address</t>
+  </si>
+  <si>
+    <t>cve</t>
+  </si>
+  <si>
+    <t>if [:3] == "CVE": cve_id</t>
+  </si>
+  <si>
+    <t>domain|ipv4</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>pdb</t>
+  </si>
+  <si>
+    <t>nids</t>
+  </si>
+  <si>
+    <t>email_attachment_name</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>pattern_in_file
+data</t>
+  </si>
+  <si>
+    <t>threat_actor_name</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>http_user_agent</t>
+  </si>
+  <si>
+    <t>hash
+checksum
+x509_fingerprint
+x509_fingerprint_md5</t>
+  </si>
+  <si>
+    <t>hash
+checksum
+x509_fingerprint
+x509_fingerprint_sha1</t>
+  </si>
+  <si>
+    <t>hash
+checksum
+x509_fingerprint
+x509_fingerprint_sha256</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>target_name
+x_misp_target_external</t>
+  </si>
+  <si>
+    <t>target_name
+x_misp_target_org</t>
+  </si>
+  <si>
+    <t>target_name
+x_misp_target_user</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1791,11 +1932,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1869,14 +2025,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2205,12 +2367,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ADF79-6BA3-4078-AC45-2DB6C1343967}">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9D8204-7354-4921-8988-ECE3987C6D8C}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,417 +2750,438 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>330</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>355</v>
+        <v>332</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>464</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>346</v>
+        <v>120</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>350</v>
+        <v>338</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>335</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>165</v>
+        <v>114</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>355</v>
+        <v>340</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>307</v>
+        <v>89</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>308</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>288</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>266</v>
-      </c>
+      <c r="A20" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>494</v>
+        <v>357</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>360</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>336</v>
+        <v>219</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>495</v>
+        <v>359</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>327</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B27" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -2708,16 +3216,16 @@
     </row>
     <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>366</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
@@ -2725,13 +3233,13 @@
         <v>365</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2790,322 +3298,315 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>368</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="21" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="21" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="21" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="21" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="F47" s="23"/>
     </row>
     <row r="48" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="21" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="21" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="21" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>374</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="B55" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="5"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
@@ -3125,1586 +3626,1560 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="5"/>
+      <c r="A57" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="16" t="s">
-        <v>74</v>
+      <c r="D59" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>253</v>
+        <v>355</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>381</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>381</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="21"/>
+      <c r="A66" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="5"/>
+      <c r="A68" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>331</v>
+        <v>393</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="5" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
         <v>500</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="19"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>399</v>
+        <v>499</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="5"/>
+      <c r="A77" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F77" s="20"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="5" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>454</v>
+      <c r="A80" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>139</v>
+        <v>263</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>408</v>
+        <v>39</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>385</v>
+        <v>505</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="14"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="5" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>357</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>274</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>276</v>
-      </c>
+      <c r="A92" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="5" t="s">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>65</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>331</v>
+        <v>424</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>357</v>
+        <v>427</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>364</v>
+        <v>428</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="14"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F106" s="23"/>
-      <c r="G106" s="21"/>
-    </row>
-    <row r="107" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D106" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="F107" s="15"/>
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F108" s="15"/>
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="15"/>
+      <c r="G109" s="14"/>
     </row>
     <row r="110" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>154</v>
+      <c r="A110" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="5" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>331</v>
+    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>357</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="5" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>331</v>
+    <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="5" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>161</v>
-      </c>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="14"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>355</v>
+        <v>444</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>355</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C115" s="22"/>
+      <c r="D115" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="23"/>
+      <c r="G115" s="21"/>
+    </row>
+    <row r="116" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>450</v>
+      <c r="A117" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>324</v>
+    <row r="118" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>353</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="5" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>457</v>
+    <row r="120" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>458</v>
+      <c r="A121" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>353</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>461</v>
+        <v>355</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>505</v>
+        <v>447</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>480</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>401</v>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F126" s="15"/>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F128" s="15"/>
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="D129" s="5" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="5" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>282</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="5" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D145" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E145" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E146" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D149" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E149" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D150" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+    <row r="151" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D151" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E151" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+    <row r="152" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E152" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+    <row r="153" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D153" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E153" s="5" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F142" s="11"/>
-      <c r="G142" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F143" s="11"/>
-      <c r="G143" s="10"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F144" s="11"/>
-      <c r="G144" s="10"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="10"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F146" s="11"/>
-      <c r="G146" s="10"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F147" s="11"/>
-      <c r="G147" s="10"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F148" s="11"/>
-      <c r="G148" s="10"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>469</v>
       </c>
       <c r="D154" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
+    <row r="157" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D157" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E157" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D159" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E159" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E158" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="F158" s="15"/>
-      <c r="G158" s="14"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="13"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="E159" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F159" s="15"/>
-      <c r="G159" s="14"/>
-    </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13"/>
+      <c r="A160" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>502</v>
+      </c>
       <c r="C160" s="13"/>
-      <c r="D160" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="E160" s="14" t="s">
-        <v>298</v>
-      </c>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
       <c r="F160" s="15"/>
       <c r="G160" s="14"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="13"/>
-      <c r="B161" s="13"/>
+      <c r="A161" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>504</v>
+      </c>
       <c r="C161" s="13"/>
-      <c r="D161" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E161" s="14" t="s">
-        <v>278</v>
-      </c>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
       <c r="F161" s="15"/>
       <c r="G161" s="14"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
-      <c r="B162" s="13"/>
+    <row r="162" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A162" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>497</v>
+      </c>
       <c r="C162" s="13"/>
-      <c r="D162" s="14" t="s">
-        <v>289</v>
-      </c>
+      <c r="D162" s="14"/>
       <c r="E162" s="14" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="F162" s="15"/>
       <c r="G162" s="14"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="13"/>
-      <c r="B163" s="13"/>
+      <c r="A163" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>444</v>
+      </c>
       <c r="C163" s="13"/>
-      <c r="D163" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E163" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
       <c r="F163" s="15"/>
       <c r="G163" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G163">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="D1"/>
   </sortState>
   <conditionalFormatting sqref="A8:E8 A1:D7 F1:F7 F9:F1048576 G1:XFD1048576 E1:E1048576 A9:D1048576">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -4716,324 +5191,1332 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ADF79-6BA3-4078-AC45-2DB6C1343967}">
-  <dimension ref="A1:A61"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD3A4BA-035A-49B6-AE8D-CE931CE2DC31}">
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="1" width="37.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="1" spans="1:4" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="D125" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="126" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B142" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="D142" s="28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+    <row r="143" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B144" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="28" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="D148" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E148" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+    <row r="149" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B149" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E149" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="E154" s="28" t="s">
         <v>469</v>
       </c>
     </row>
+    <row r="155" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="D155" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="D156" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D163">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <conditionalFormatting sqref="F150:XFD150 A150:D150 A1:XFD149 A151:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW()/2,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Attributes and Objects Documentation.xlsx
+++ b/Attributes and Objects Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tahoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605D53E4-EB06-402D-905F-24E712AFBED2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8C247-0E77-427E-AA2B-F34B1368EF58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="current" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="misp" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="583">
   <si>
     <t xml:space="preserve">md5 </t>
   </si>
@@ -1659,9 +1660,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>alias</t>
-  </si>
-  <si>
     <t>tahoe object</t>
   </si>
   <si>
@@ -1712,9 +1710,6 @@
   </si>
   <si>
     <t>cryptocurrency_address</t>
-  </si>
-  <si>
-    <t>cve</t>
   </si>
   <si>
     <t>if [:3] == "CVE": cve_id</t>
@@ -1791,6 +1786,81 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>pattern_in_memory
+data</t>
+  </si>
+  <si>
+    <t>traffic</t>
+  </si>
+  <si>
+    <t>pattern_in_traffic
+data</t>
+  </si>
+  <si>
+    <t>named_pipe</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>prtn
+phone</t>
+  </si>
+  <si>
+    <t>dns_soa_email</t>
+  </si>
+  <si>
+    <t>email_reply_to</t>
+  </si>
+  <si>
+    <t>statement_of_authority</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>hex_data</t>
+  </si>
+  <si>
+    <t>jabber_id</t>
+  </si>
+  <si>
+    <t>twitter_id</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>size_in_bytes</t>
+  </si>
+  <si>
+    <t>mime_boundary</t>
+  </si>
+  <si>
+    <t>reply_to</t>
+  </si>
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>x_mailer</t>
+  </si>
+  <si>
+    <t>tahoe alias</t>
+  </si>
+  <si>
+    <t>misp alias</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2113,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2696,8 +2780,8 @@
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5182,7 +5266,7 @@
     <sortCondition ref="D1"/>
   </sortState>
   <conditionalFormatting sqref="A8:E8 A1:D7 F1:F7 F9:F1048576 G1:XFD1048576 E1:E1048576 A9:D1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW()/2,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5193,1331 +5277,2833 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD3A4BA-035A-49B6-AE8D-CE931CE2DC31}">
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="28"/>
+    <col min="2" max="2" width="22.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>315</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>543</v>
-      </c>
       <c r="D4" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E5" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="C12" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="D17" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="C26" s="28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>544</v>
-      </c>
       <c r="E28" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="C30" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="E30" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="F30" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="C31" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="E31" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="F31" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="C36" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="E36" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="F36" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="C37" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="E37" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="F37" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="C41" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="E41" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="C42" s="28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="C43" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="C44" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="C45" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="C46" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="C47" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="C48" s="28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="C49" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="C50" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="C51" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="C52" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="C54" s="28" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="C55" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="C61" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="D61" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>542</v>
-      </c>
       <c r="C62" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="D62" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="63" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="C63" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="D63" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="64" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="C67" s="28" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="C73" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C73" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E73" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="74" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="C74" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>524</v>
-      </c>
       <c r="D74" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="E74" s="28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="75" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="C76" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="C76" s="28" t="s">
-        <v>524</v>
-      </c>
       <c r="D76" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="E76" s="28" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="28" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="28" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="C82" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="D82" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="D82" s="28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="28" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="28" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="C85" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="E85" s="28" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="86" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="C87" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="C87" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D87" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="89" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="C90" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="E90" s="28" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="C91" s="28" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="28" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="C94" s="28" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="28" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="D99" s="28" t="s">
+      <c r="C99" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="E99" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="100" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="28" t="s">
-        <v>545</v>
-      </c>
       <c r="C103" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="D103" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="D103" s="28" t="s">
+      <c r="E103" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C104" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="28" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="28" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="28" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="107" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="109" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B110" s="28" t="s">
+      <c r="C110" s="28" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="111" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="28" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="112" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="28" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="114" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="C114" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D114" s="28" t="s">
+      <c r="E114" s="28" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="115" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="28" t="s">
+      <c r="C115" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="E115" s="28" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C116" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="C117" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D117" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C117" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B118" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C118" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="C119" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C119" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D119" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B120" s="28" t="s">
+      <c r="C120" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C120" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D120" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B121" s="28" t="s">
+      <c r="C121" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C121" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D121" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B122" s="28" t="s">
+      <c r="C122" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C122" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D122" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C123" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="28" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C124" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="28" t="s">
+      <c r="C125" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="C125" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="D125" s="28" t="s">
+      <c r="D125" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E125" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="28" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="C127" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="C127" s="29" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D127" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="129" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B129" s="28" t="s">
+      <c r="C129" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D129" s="28" t="s">
+      <c r="E129" s="28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="D130" s="28" t="s">
+      <c r="C130" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="E130" s="28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="131" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="28" t="s">
-        <v>560</v>
-      </c>
       <c r="C131" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D131" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="E131" s="28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B132" s="28" t="s">
+      <c r="C132" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="E132" s="28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B133" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="C133" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="D133" s="28" t="s">
+      <c r="C133" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="E133" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="F133" s="28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B134" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="C134" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="D134" s="28" t="s">
-        <v>551</v>
+      <c r="C134" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="E134" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="F134" s="28" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="135" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B135" s="28" t="s">
+      <c r="C135" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="136" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B136" s="28" t="s">
-        <v>525</v>
-      </c>
       <c r="C136" s="28" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="D136" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="E136" s="28" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="137" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="28" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="28" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C139" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="28" t="s">
+      <c r="C140" s="28" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="141" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B141" s="28" t="s">
+      <c r="C141" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="D141" s="28" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="142" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B142" s="28" t="s">
+      <c r="C142" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="C142" s="28" t="s">
-        <v>552</v>
-      </c>
       <c r="D142" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="E142" s="28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="28" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="144" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B144" s="28" t="s">
-        <v>540</v>
-      </c>
       <c r="C144" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="D144" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="D144" s="28" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B145" s="28" t="s">
+      <c r="C145" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="D145" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="C145" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="D145" s="28" t="s">
+      <c r="E145" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="146" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B146" s="28" t="s">
+      <c r="C146" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="D146" s="28" t="s">
-        <v>535</v>
-      </c>
       <c r="E146" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F146" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="147" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B147" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="D147" s="28" t="s">
-        <v>535</v>
+      <c r="C147" s="28" t="s">
+        <v>524</v>
       </c>
       <c r="E147" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F147" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="148" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B148" s="28" t="s">
+      <c r="C148" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="D148" s="28" t="s">
-        <v>535</v>
-      </c>
       <c r="E148" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F148" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="149" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B149" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>535</v>
+      <c r="C149" s="28" t="s">
+        <v>532</v>
       </c>
       <c r="E149" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F149" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="150" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B150" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D150" s="28" t="s">
+      <c r="C150" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="E150" s="28" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="28" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C151" s="28" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="28" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C152" s="28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="28" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C153" s="28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B154" s="28" t="s">
+      <c r="C154" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="C154" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="D154" s="28" t="s">
-        <v>536</v>
+      <c r="D154" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="E154" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="F154" s="28" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B155" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="C155" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="D155" s="28" t="s">
-        <v>536</v>
+      <c r="C155" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>552</v>
       </c>
       <c r="E155" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="F155" s="28" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B156" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="D156" s="28" t="s">
-        <v>536</v>
+      <c r="C156" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>553</v>
       </c>
       <c r="E156" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="F156" s="28" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="157" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B158" s="28" t="s">
+      <c r="C158" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="C158" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="D158" s="28" t="s">
+      <c r="D158" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E158" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="28" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D163">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F159">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="F150:XFD150 A150:D150 A1:XFD149 A151:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="G150:XFD150 E112:XFD112 E85:XFD85 D150:E150 D151:XFD1048576 D113:XFD149 D86:XFD111 D1:XFD12 E13:XFD14 D15:XFD27 E28:XFD29 D30:XFD34 D36:XFD84 E35:XFD35 A1:C1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW()/2,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF03108-B62E-4189-A7F3-410EEC41743F}">
+  <dimension ref="A1:D159"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B101" sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D151:D1048576 D1:D149 A1:C1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW()/2,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Attributes and Objects Documentation.xlsx
+++ b/Attributes and Objects Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tahoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8C247-0E77-427E-AA2B-F34B1368EF58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF9622-D922-41D1-931A-7DA3FD52CECA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="582">
   <si>
     <t xml:space="preserve">md5 </t>
   </si>
@@ -1739,10 +1739,6 @@
     <t>pattern</t>
   </si>
   <si>
-    <t>pattern_in_file
-data</t>
-  </si>
-  <si>
     <t>threat_actor_name</t>
   </si>
   <si>
@@ -1791,15 +1787,7 @@
     <t>memory</t>
   </si>
   <si>
-    <t>pattern_in_memory
-data</t>
-  </si>
-  <si>
     <t>traffic</t>
-  </si>
-  <si>
-    <t>pattern_in_traffic
-data</t>
   </si>
   <si>
     <t>named_pipe</t>
@@ -1861,6 +1849,12 @@
   </si>
   <si>
     <t>misp alias</t>
+  </si>
+  <si>
+    <t>hostname|port</t>
+  </si>
+  <si>
+    <t>ip|</t>
   </si>
 </sst>
 </file>
@@ -2113,14 +2107,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -5280,8 +5267,8 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -5300,13 +5287,13 @@
         <v>315</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>519</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>521</v>
@@ -5396,7 +5383,7 @@
         <v>319</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>348</v>
@@ -5483,16 +5470,16 @@
         <v>212</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>362</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
@@ -5539,7 +5526,7 @@
         <v>426</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>368</v>
@@ -5583,7 +5570,7 @@
         <v>247</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>368</v>
@@ -5594,7 +5581,7 @@
         <v>243</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>368</v>
@@ -5605,13 +5592,13 @@
         <v>239</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>362</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>368</v>
@@ -5666,7 +5653,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>368</v>
@@ -5868,7 +5855,7 @@
         <v>93</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>426</v>
@@ -5886,6 +5873,12 @@
       <c r="A68" s="28" t="s">
         <v>227</v>
       </c>
+      <c r="C68" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="28" t="s">
@@ -5939,6 +5932,15 @@
       <c r="A75" s="28" t="s">
         <v>223</v>
       </c>
+      <c r="C75" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="76" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="28" t="s">
@@ -5958,6 +5960,15 @@
       <c r="A77" s="28" t="s">
         <v>225</v>
       </c>
+      <c r="C77" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="78" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="28" t="s">
@@ -5977,7 +5988,7 @@
         <v>452</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>401</v>
@@ -6073,7 +6084,7 @@
         <v>97</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6109,46 +6120,55 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="28" t="s">
         <v>62</v>
       </c>
+      <c r="B99" s="28" t="s">
+        <v>425</v>
+      </c>
       <c r="C99" s="28" t="s">
         <v>546</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>547</v>
+        <v>426</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="28" t="s">
         <v>66</v>
       </c>
+      <c r="B100" s="28" t="s">
+        <v>425</v>
+      </c>
       <c r="C100" s="28" t="s">
         <v>546</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>560</v>
+        <v>426</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="28" t="s">
         <v>64</v>
       </c>
+      <c r="B101" s="28" t="s">
+        <v>425</v>
+      </c>
       <c r="C101" s="28" t="s">
         <v>546</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>562</v>
+        <v>426</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6233,7 +6253,7 @@
         <v>442</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6356,10 +6376,10 @@
         <v>213</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E124" s="28" t="s">
         <v>514</v>
@@ -6415,11 +6435,11 @@
       <c r="A130" s="28" t="s">
         <v>111</v>
       </c>
+      <c r="B130" s="29" t="s">
+        <v>554</v>
+      </c>
       <c r="C130" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E130" s="28" t="s">
         <v>451</v>
@@ -6429,11 +6449,11 @@
       <c r="A131" s="28" t="s">
         <v>109</v>
       </c>
+      <c r="B131" s="28" t="s">
+        <v>455</v>
+      </c>
       <c r="C131" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="D131" s="28" t="s">
-        <v>455</v>
+        <v>557</v>
       </c>
       <c r="E131" s="28" t="s">
         <v>451</v>
@@ -6454,11 +6474,11 @@
       <c r="A133" s="28" t="s">
         <v>107</v>
       </c>
+      <c r="B133" s="29" t="s">
+        <v>555</v>
+      </c>
       <c r="C133" s="28" t="s">
         <v>524</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>556</v>
       </c>
       <c r="E133" s="28" t="s">
         <v>513</v>
@@ -6471,14 +6491,14 @@
       <c r="A134" s="28" t="s">
         <v>101</v>
       </c>
+      <c r="B134" s="29" t="s">
+        <v>556</v>
+      </c>
       <c r="C134" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="D134" s="29" t="s">
-        <v>557</v>
-      </c>
       <c r="E134" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F134" s="28" t="s">
         <v>451</v>
@@ -6496,11 +6516,11 @@
       <c r="A136" s="28" t="s">
         <v>133</v>
       </c>
+      <c r="B136" s="28" t="s">
+        <v>547</v>
+      </c>
       <c r="C136" s="28" t="s">
         <v>524</v>
-      </c>
-      <c r="D136" s="28" t="s">
-        <v>548</v>
       </c>
       <c r="E136" s="28" t="s">
         <v>457</v>
@@ -6524,10 +6544,10 @@
         <v>452</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
@@ -6557,7 +6577,7 @@
         <v>479</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E142" s="28" t="s">
         <v>392</v>
@@ -6692,7 +6712,7 @@
         <v>408</v>
       </c>
       <c r="D154" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E154" s="28" t="s">
         <v>535</v>
@@ -6709,7 +6729,7 @@
         <v>525</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E155" s="28" t="s">
         <v>535</v>
@@ -6726,7 +6746,7 @@
         <v>522</v>
       </c>
       <c r="D156" s="29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>535</v>
@@ -6763,7 +6783,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F159">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="G150:XFD150 E112:XFD112 E85:XFD85 D150:E150 D151:XFD1048576 D113:XFD149 D86:XFD111 D1:XFD12 E13:XFD14 D15:XFD27 E28:XFD29 D30:XFD34 D36:XFD84 E35:XFD35 A1:C1048576">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW()/2,1)&gt;0</formula>
     </cfRule>
@@ -6825,7 +6845,7 @@
         <v>213</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>514</v>
@@ -6866,7 +6886,7 @@
         <v>426</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>368</v>
@@ -6885,7 +6905,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>451</v>
@@ -6915,10 +6935,10 @@
         <v>362</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6943,7 +6963,7 @@
         <v>362</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>368</v>
@@ -7180,7 +7200,7 @@
         <v>93</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
@@ -7196,7 +7216,7 @@
         <v>137</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>348</v>
@@ -7248,7 +7268,7 @@
         <v>109</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>451</v>
@@ -7292,7 +7312,7 @@
         <v>247</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>368</v>
@@ -7303,7 +7323,7 @@
         <v>243</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>368</v>
@@ -7361,7 +7381,7 @@
         <v>524</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>451</v>
@@ -7397,7 +7417,7 @@
         <v>97</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7449,7 +7469,7 @@
         <v>546</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7460,7 +7480,7 @@
         <v>546</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7759,7 +7779,7 @@
         <v>452</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
@@ -7791,7 +7811,7 @@
         <v>241</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>368</v>

--- a/Attributes and Objects Documentation.xlsx
+++ b/Attributes and Objects Documentation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tahoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF9622-D922-41D1-931A-7DA3FD52CECA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C282DB23-ABBD-462C-8180-72B65B8986D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
   </bookViews>
   <sheets>
-    <sheet name="current" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="misp" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="misp" sheetId="3" r:id="rId1"/>
+    <sheet name="cowrie" sheetId="4" r:id="rId2"/>
+    <sheet name="current" sheetId="2" r:id="rId3"/>
+    <sheet name="misp_old" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="680">
   <si>
     <t xml:space="preserve">md5 </t>
   </si>
@@ -1694,9 +1694,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>registrar</t>
   </si>
   <si>
@@ -1746,24 +1743,6 @@
   </si>
   <si>
     <t>http_user_agent</t>
-  </si>
-  <si>
-    <t>hash
-checksum
-x509_fingerprint
-x509_fingerprint_md5</t>
-  </si>
-  <si>
-    <t>hash
-checksum
-x509_fingerprint
-x509_fingerprint_sha1</t>
-  </si>
-  <si>
-    <t>hash
-checksum
-x509_fingerprint
-x509_fingerprint_sha256</t>
   </si>
   <si>
     <t>description</t>
@@ -1799,62 +1778,374 @@
     <t>body</t>
   </si>
   <si>
+    <t>dns_soa_email</t>
+  </si>
+  <si>
+    <t>email_reply_to</t>
+  </si>
+  <si>
+    <t>statement_of_authority</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>hex_data</t>
+  </si>
+  <si>
+    <t>jabber_id</t>
+  </si>
+  <si>
+    <t>twitter_id</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>size_in_bytes</t>
+  </si>
+  <si>
+    <t>mime_boundary</t>
+  </si>
+  <si>
+    <t>reply_to</t>
+  </si>
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>x_mailer</t>
+  </si>
+  <si>
+    <t>tahoe alias</t>
+  </si>
+  <si>
+    <t>misp alias</t>
+  </si>
+  <si>
+    <t>hostname|port</t>
+  </si>
+  <si>
+    <t>ip|</t>
+  </si>
+  <si>
+    <t>cowrie alias</t>
+  </si>
+  <si>
+    <t>country_code2</t>
+  </si>
+  <si>
+    <t>region_code</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>continent_code</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>dma_code</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>region_name</t>
+  </si>
+  <si>
+    <t>country_code3</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>x_cowrie_sessionid</t>
+  </si>
+  <si>
+    <t>host.name</t>
+  </si>
+  <si>
+    <t>geoip.city_name</t>
+  </si>
+  <si>
+    <t>geoip.continent_code</t>
+  </si>
+  <si>
+    <t>geoip.country_code2</t>
+  </si>
+  <si>
+    <t>geoip.country_code3</t>
+  </si>
+  <si>
+    <t>geoip.country_name</t>
+  </si>
+  <si>
+    <t>geoip.dma_code</t>
+  </si>
+  <si>
+    <t>geoip.ip</t>
+  </si>
+  <si>
+    <t>geoip.latitude</t>
+  </si>
+  <si>
+    <t>geoip.longitude</t>
+  </si>
+  <si>
+    <t>geoip.postal_code</t>
+  </si>
+  <si>
+    <t>geoip.region_code</t>
+  </si>
+  <si>
+    <t>geoip.region_name</t>
+  </si>
+  <si>
+    <t>geoip.timezone</t>
+  </si>
+  <si>
+    <t>sessionid</t>
+  </si>
+  <si>
+    <t>src_ip</t>
+  </si>
+  <si>
+    <t>attacker_ip</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>ssh_client_size</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>encr_algo</t>
+  </si>
+  <si>
+    <t>ssh_key_exchange</t>
+  </si>
+  <si>
+    <t>kex_algo</t>
+  </si>
+  <si>
+    <t>pub_key_algo</t>
+  </si>
+  <si>
+    <t>keyAlgs._each</t>
+  </si>
+  <si>
+    <t>kexAlgs._each</t>
+  </si>
+  <si>
+    <t>compCS._each</t>
+  </si>
+  <si>
+    <t>encCS._each</t>
+  </si>
+  <si>
+    <t>array field</t>
+  </si>
+  <si>
+    <t>macCS._each</t>
+  </si>
+  <si>
+    <t>mac_algo</t>
+  </si>
+  <si>
+    <t>hassh</t>
+  </si>
+  <si>
+    <t>ssh_kex_hash</t>
+  </si>
+  <si>
+    <t>ssh_client_env</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>cowrie eventid</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>client.kex</t>
+  </si>
+  <si>
+    <t>client.size</t>
+  </si>
+  <si>
+    <t>client.var</t>
+  </si>
+  <si>
+    <t>tahoe event</t>
+  </si>
+  <si>
+    <t>client.version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>ssh_version</t>
+  </si>
+  <si>
+    <t>command.input</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>shell_command</t>
+  </si>
+  <si>
+    <t>command.success</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>command.failed</t>
+  </si>
+  <si>
+    <t>direct-tcpip.</t>
+  </si>
+  <si>
+    <t>dst_ip</t>
+  </si>
+  <si>
+    <t>dst_port</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>value = TCP</t>
+  </si>
+  <si>
+    <t>direct-tcpip.data</t>
+  </si>
+  <si>
+    <t>direct-tcpip.request</t>
+  </si>
+  <si>
+    <t>src_port</t>
+  </si>
+  <si>
+    <t>login.</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login_credential</t>
+  </si>
+  <si>
+    <t>login.failed</t>
+  </si>
+  <si>
+    <t>network_traffic</t>
+  </si>
+  <si>
+    <t>ssh_login</t>
+  </si>
+  <si>
+    <t>login.success</t>
+  </si>
+  <si>
+    <t>value = false</t>
+  </si>
+  <si>
+    <t>value = true</t>
+  </si>
+  <si>
+    <t>session.closed</t>
+  </si>
+  <si>
+    <t>@timestamp'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session
+parameter </t>
+  </si>
+  <si>
+    <t>tahoe
+attribute</t>
+  </si>
+  <si>
+    <t>cowrie
+attribute</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>session.connect</t>
+  </si>
+  <si>
+    <t>@timestamp</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>session.file_download</t>
+  </si>
+  <si>
+    <t>file_download</t>
+  </si>
+  <si>
+    <t>value = url[-1]</t>
+  </si>
+  <si>
+    <t>shasum</t>
+  </si>
+  <si>
+    <t>session.file_download.failed</t>
+  </si>
+  <si>
     <t>prtn
-phone</t>
-  </si>
-  <si>
-    <t>dns_soa_email</t>
-  </si>
-  <si>
-    <t>email_reply_to</t>
-  </si>
-  <si>
-    <t>statement_of_authority</t>
-  </si>
-  <si>
-    <t>dns</t>
-  </si>
-  <si>
-    <t>hex_data</t>
-  </si>
-  <si>
-    <t>jabber_id</t>
-  </si>
-  <si>
-    <t>twitter_id</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>bytes</t>
-  </si>
-  <si>
-    <t>size_in_bytes</t>
-  </si>
-  <si>
-    <t>mime_boundary</t>
-  </si>
-  <si>
-    <t>reply_to</t>
-  </si>
-  <si>
-    <t>message_id</t>
-  </si>
-  <si>
-    <t>x_mailer</t>
-  </si>
-  <si>
-    <t>tahoe alias</t>
-  </si>
-  <si>
-    <t>misp alias</t>
-  </si>
-  <si>
-    <t>hostname|port</t>
-  </si>
-  <si>
-    <t>ip|</t>
+phone_number</t>
+  </si>
+  <si>
+    <t>siem</t>
+  </si>
+  <si>
+    <t>x509_fingerprint
+x509_fingerprint_md5</t>
+  </si>
+  <si>
+    <t>x509_fingerprint
+x509_fingerprint_sha256</t>
+  </si>
+  <si>
+    <t>x509_fingerprint
+x509_fingerprint_sha1</t>
+  </si>
+  <si>
+    <t>x509-fingerprint-sha256</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2102,6 +2393,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2438,6 +2740,2368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD3A4BA-035A-49B6-AE8D-CE931CE2DC31}">
+  <dimension ref="A1:F159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E101" s="28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="E103" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E134" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="D144" s="28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E146" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E147" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="F147" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="E148" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="F148" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E149" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="F149" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="C154" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E154" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F159">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:XFD60 A61:C63 E61:XFD63 A64:XFD79 E80:XFD80 A80:C80 A81:XFD1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW()/2,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF03108-B62E-4189-A7F3-410EEC41743F}">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="31" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>663</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>670</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>670</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F19">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <conditionalFormatting sqref="C34:G34 B32:G33 A32:A34 A35:G36 A1:H31 I1:J32 H32:I36 I34:J36 K1:XFD1048576 A37:J1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW()/2,1)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ADF79-6BA3-4078-AC45-2DB6C1343967}">
   <dimension ref="A1:A61"/>
   <sheetViews>
@@ -2762,7 +5426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9D8204-7354-4921-8988-ECE3987C6D8C}">
   <dimension ref="A1:G163"/>
   <sheetViews>
@@ -5253,2877 +7917,11 @@
     <sortCondition ref="D1"/>
   </sortState>
   <conditionalFormatting sqref="A8:E8 A1:D7 F1:F7 F9:F1048576 G1:XFD1048576 E1:E1048576 A9:D1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW()/2,1)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD3A4BA-035A-49B6-AE8D-CE931CE2DC31}">
-  <dimension ref="A1:F159"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="28" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="E100" s="28" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="E101" s="28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="D104" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="E104" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="E114" s="28" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="E115" s="28" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C117" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="E123" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="E124" s="28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E125" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B134" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="E134" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="F134" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="D139" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D141" s="28" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="D142" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="E142" s="28" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="D144" s="28" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="D145" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F146" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C147" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="E147" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F147" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C148" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="E148" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F148" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="E149" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="F149" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C150" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="E150" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C151" s="28" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="D154" s="29" t="s">
-        <v>550</v>
-      </c>
-      <c r="E154" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="F154" s="28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="D155" s="29" t="s">
-        <v>551</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="F155" s="28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="D156" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="E156" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="F156" s="28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="D158" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E158" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F159">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW()/2,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF03108-B62E-4189-A7F3-410EEC41743F}">
-  <dimension ref="A1:D159"/>
-  <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B101" sqref="A1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="28" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="28" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="28" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D151:D1048576 D1:D149 A1:C1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW()/2,1)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Attributes and Objects Documentation.xlsx
+++ b/Attributes and Objects Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tahoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C282DB23-ABBD-462C-8180-72B65B8986D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2EE2D6-DE05-4F19-BDB9-BA8F45DD90DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
   </bookViews>
   <sheets>
     <sheet name="misp" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="679">
   <si>
     <t xml:space="preserve">md5 </t>
   </si>
@@ -2064,9 +2064,6 @@
   </si>
   <si>
     <t>network_traffic</t>
-  </si>
-  <si>
-    <t>ssh_login</t>
   </si>
   <si>
     <t>login.success</t>
@@ -2743,9 +2740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD3A4BA-035A-49B6-AE8D-CE931CE2DC31}">
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -3730,7 +3727,7 @@
         <v>442</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="113" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3845,7 +3842,7 @@
         <v>446</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E123" s="28" t="s">
         <v>355</v>
@@ -4189,7 +4186,7 @@
         <v>208</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C154" s="28" t="s">
         <v>408</v>
@@ -4209,7 +4206,7 @@
         <v>206</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C155" s="28" t="s">
         <v>525</v>
@@ -4226,10 +4223,10 @@
     </row>
     <row r="156" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C156" s="28" t="s">
         <v>522</v>
@@ -4286,9 +4283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF03108-B62E-4189-A7F3-410EEC41743F}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -4311,13 +4308,13 @@
         <v>627</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>577</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>573</v>
@@ -4329,7 +4326,7 @@
         <v>632</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>340</v>
@@ -4814,7 +4811,7 @@
         <v>638</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
@@ -4828,7 +4825,7 @@
         <v>638</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
@@ -4941,7 +4938,7 @@
         <v>652</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
@@ -4958,7 +4955,7 @@
         <v>652</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
@@ -4969,62 +4966,62 @@
         <v>640</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>640</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>659</v>
       </c>
-      <c r="B41" s="33" t="s">
-        <v>660</v>
-      </c>
       <c r="I41" s="32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="42" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="43" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="I43" s="32" t="s">
         <v>667</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>39</v>
@@ -5033,12 +5030,12 @@
         <v>39</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>520</v>
@@ -5047,18 +5044,18 @@
         <v>374</v>
       </c>
       <c r="H45" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="J45" s="32" t="s">
         <v>670</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>522</v>
@@ -5070,21 +5067,21 @@
         <v>374</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>640</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/Attributes and Objects Documentation.xlsx
+++ b/Attributes and Objects Documentation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tahoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2EE2D6-DE05-4F19-BDB9-BA8F45DD90DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B923C68-3C7B-4308-8393-9A68041E8984}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{11D50969-177D-481F-A7AD-9647F67FC210}"/>
   </bookViews>
   <sheets>
     <sheet name="misp" sheetId="3" r:id="rId1"/>
     <sheet name="cowrie" sheetId="4" r:id="rId2"/>
-    <sheet name="current" sheetId="2" r:id="rId3"/>
-    <sheet name="misp_old" sheetId="1" r:id="rId4"/>
+    <sheet name="phishtank" sheetId="5" r:id="rId3"/>
+    <sheet name="current" sheetId="2" r:id="rId4"/>
+    <sheet name="misp_old" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="699">
   <si>
     <t xml:space="preserve">md5 </t>
   </si>
@@ -2143,6 +2144,66 @@
   </si>
   <si>
     <t>x509-fingerprint-sha256</t>
+  </si>
+  <si>
+    <t>phishtank att</t>
+  </si>
+  <si>
+    <t>sighting</t>
+  </si>
+  <si>
+    <t>malicious</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>phish_id</t>
+  </si>
+  <si>
+    <t>phish_detail_url</t>
+  </si>
+  <si>
+    <t>submission_time</t>
+  </si>
+  <si>
+    <t>verification_time</t>
+  </si>
+  <si>
+    <t>event field</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>verification_timestamp</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>rir</t>
+  </si>
+  <si>
+    <t>organziation</t>
+  </si>
+  <si>
+    <t>details.ip_address</t>
+  </si>
+  <si>
+    <t>details.cidr_block</t>
+  </si>
+  <si>
+    <t>details.announcing_networok</t>
+  </si>
+  <si>
+    <t>details.rir</t>
+  </si>
+  <si>
+    <t>details.country</t>
+  </si>
+  <si>
+    <t>goeip</t>
   </si>
 </sst>
 </file>
@@ -2741,8 +2802,8 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.35"/>
@@ -4283,9 +4344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF03108-B62E-4189-A7F3-410EEC41743F}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -5099,6 +5160,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E271FC2E-4D85-4F03-8927-A115C6093368}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>685</v>
+      </c>
+      <c r="H5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B8" t="s">
+        <v>690</v>
+      </c>
+      <c r="C8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B11" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" t="s">
+        <v>692</v>
+      </c>
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ADF79-6BA3-4078-AC45-2DB6C1343967}">
   <dimension ref="A1:A61"/>
   <sheetViews>
@@ -5423,7 +5650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9D8204-7354-4921-8988-ECE3987C6D8C}">
   <dimension ref="A1:G163"/>
   <sheetViews>
